--- a/AAII_Financials/Quarterly/EQM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>EQM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>453100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>425900</v>
+      </c>
+      <c r="F8" s="3">
         <v>408400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>406200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>389800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>384800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>364600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>374700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>371000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>292400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>206300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>196800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>212200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>475700</v>
+      </c>
+      <c r="F14" s="3">
         <v>298900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>95500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>261900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F15" s="3">
         <v>73700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>70300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>57500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>55300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>54000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>52500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>51700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>48500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>22200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>21400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>20500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>16400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>626100</v>
+      </c>
+      <c r="F17" s="3">
         <v>439500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>238700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>121800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>403300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>131100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>128800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>105200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>60600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>55500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>54800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>63100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>167500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>268000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>233500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>245900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>265800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>188400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>145700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>141300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>145300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>149100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,213 +1243,239 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>52500</v>
+      </c>
+      <c r="F20" s="3">
         <v>46400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>40300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>34900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>29400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>13600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>18600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F21" s="3">
         <v>89000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>278100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>360300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>66200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>306500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>311900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>328800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>246200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>176300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>170900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>173400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>187200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>151500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F22" s="3">
         <v>55500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>51300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>42600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>14300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-206100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-40200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>156500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>251900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-36100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>209900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>234700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>262800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>185100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>142900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>139100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>143200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>167700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>136900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1393,13 +1484,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-206100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-40200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>156500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>251900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>209900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>234700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>262800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>185100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>142900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>139100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>143200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>157600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>133700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-36000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>129500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>251900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-107700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>128100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>91400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>130000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>102800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>102500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>110000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>105700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-46400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-40300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-34900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-29400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-13600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-18600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-36000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>129500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>251900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-107700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>128100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>91400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>130000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>103000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>102800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>102500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>110000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>105700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-36000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>129500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>251900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-107700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>128100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>91400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>130000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>103000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>102800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>102500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>110000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>105700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F41" s="3">
         <v>81900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>684100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>54600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>42500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>60400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>249100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>254100</v>
+      </c>
+      <c r="F43" s="3">
         <v>242200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>274800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>259300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>254400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>225800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>166700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>121100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>219300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>109900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>106700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>103300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>102000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>93000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,217 +2334,247 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F45" s="3">
         <v>21000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>17200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>294900</v>
+      </c>
+      <c r="F46" s="3">
         <v>345100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>313400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>296500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>286800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>239600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>864900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>147300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>288000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>123200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>124800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>151500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>172100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>95600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3311600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2324100</v>
+      </c>
+      <c r="F47" s="3">
         <v>2227300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2066300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1673300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1510300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1300400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1003300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>546400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>460500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>340000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>260700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>237300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>184600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7740200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7766200</v>
+      </c>
+      <c r="F48" s="3">
         <v>7660800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7427900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6029900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5806600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5608400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3922100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5110800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2745500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2696200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2632500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2578800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2429400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1251900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1284100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1774200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2106400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1689500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1699900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1971400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>634800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>2002500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>251700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>145700</v>
+      </c>
+      <c r="F52" s="3">
         <v>146500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>149100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>199400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>152500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>146400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>137300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>135500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>273800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>138800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>137900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>139200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>140400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12858100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11815000</v>
+      </c>
+      <c r="F54" s="3">
         <v>12154000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12063200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9888600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9456100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9266200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6562400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3693300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7998800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3347400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3219600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3160500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3075800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2829500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>126800</v>
+      </c>
+      <c r="F57" s="3">
         <v>172400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>179400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>143200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>173900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>134000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>85000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>48200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>105300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>37500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>43500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,202 +2956,232 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>40000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>189100</v>
+      </c>
+      <c r="F59" s="3">
         <v>363800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>544800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>283800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>348600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>566000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>524900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>116000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>171700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>65300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>80500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>51200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>315900</v>
+      </c>
+      <c r="F60" s="3">
         <v>536300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>724200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>427000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>522500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>609900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>164200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>277000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>137400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>148100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>124000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>87000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>196100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6582600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5762000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5415700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4831800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4540000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4081600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3477300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3454000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1304800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1453400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1091900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>986500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>986100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>985700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>695700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>325400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F62" s="3">
         <v>79200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>81100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>67400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>38700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>31000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>49900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7666200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6613400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6483900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6127300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5034400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4642800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4208300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4085300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1489900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1933400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1239300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1144600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1120300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1082300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,43 +3509,49 @@
         <v>1183800</v>
       </c>
       <c r="E70" s="3">
+        <v>1183800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1183800</v>
+      </c>
+      <c r="G70" s="3">
         <v>1181300</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>29600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>31400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>28600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>5300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>-2900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>-7000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>-11100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>-15000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4008000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4017800</v>
+      </c>
+      <c r="F76" s="3">
         <v>4486300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4754600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4854200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4783700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5026400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2448500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2198100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6064100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2111100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2082000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2051200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2008500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1948500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-36000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>129500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>251900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-107700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>128100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>91400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>130000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>103000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>102800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>102500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>110000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>105700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F83" s="3">
         <v>73700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>70300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>57500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>55300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>54000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>52500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>51700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>48500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>22200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>16400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>304600</v>
+      </c>
+      <c r="F89" s="3">
         <v>234600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>349300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>161000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>321800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>242600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>338900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>284000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>201600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>159900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>158900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>161400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>157900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>103600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-297100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-321100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-206700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-220600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-313500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-218900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-84000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-75200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-86500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-62900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>323200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-323400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-845900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-458100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-496200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1324900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-350400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-698000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-575600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1476700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-132000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-117600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-125600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-81700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-237900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>-232500</v>
       </c>
       <c r="E96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-229500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-211300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-207700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-270200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-132300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-125900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-118700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-111500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-104200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-97800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-92200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-86600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>559200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>87400</v>
+      </c>
+      <c r="F100" s="3">
         <v>326900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>918500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>245700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>389000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-538200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1845700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>29400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-64200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-97600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>93100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="F102" s="3">
         <v>65300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-57200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>56300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>12800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-696700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>620000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>26800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-31000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-17900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>50200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-84100</v>
       </c>
     </row>
